--- a/doc/completion_SpecAnalysis/CombinedTest/200系_結合テストデシジョンテーブル.xlsx
+++ b/doc/completion_SpecAnalysis/CombinedTest/200系_結合テストデシジョンテーブル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="180" windowWidth="15585" windowHeight="9480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14805" windowHeight="5055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="得意先検索" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="受注一覧表示" sheetId="6" r:id="rId3"/>
     <sheet name="受注取消" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M14"/>
 </workbook>
 </file>
 
@@ -1939,243 +1940,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2203,6 +1967,243 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2533,116 +2534,116 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="115">
+      <c r="E2" s="119">
         <v>1</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="100">
         <v>2</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="100">
         <v>3</v>
       </c>
-      <c r="H2" s="117">
+      <c r="H2" s="100">
         <v>4</v>
       </c>
-      <c r="I2" s="117">
+      <c r="I2" s="100">
         <v>4</v>
       </c>
-      <c r="J2" s="117">
+      <c r="J2" s="100">
         <v>5</v>
       </c>
-      <c r="K2" s="117">
+      <c r="K2" s="100">
         <v>5</v>
       </c>
-      <c r="L2" s="117">
+      <c r="L2" s="100">
         <v>6</v>
       </c>
-      <c r="M2" s="117">
+      <c r="M2" s="100">
         <v>7</v>
       </c>
-      <c r="N2" s="117">
+      <c r="N2" s="100">
         <v>8</v>
       </c>
-      <c r="O2" s="117">
+      <c r="O2" s="100">
         <v>9</v>
       </c>
-      <c r="P2" s="117">
+      <c r="P2" s="100">
         <v>9</v>
       </c>
-      <c r="Q2" s="117">
+      <c r="Q2" s="100">
         <v>9</v>
       </c>
-      <c r="R2" s="117">
+      <c r="R2" s="100">
         <v>10</v>
       </c>
-      <c r="S2" s="117">
+      <c r="S2" s="100">
         <v>11</v>
       </c>
-      <c r="T2" s="117">
+      <c r="T2" s="100">
         <v>12</v>
       </c>
-      <c r="U2" s="117">
+      <c r="U2" s="100">
         <v>13</v>
       </c>
-      <c r="V2" s="117">
+      <c r="V2" s="100">
         <v>14</v>
       </c>
-      <c r="W2" s="117">
+      <c r="W2" s="100">
         <v>15</v>
       </c>
-      <c r="X2" s="117">
+      <c r="X2" s="100">
         <v>16</v>
       </c>
-      <c r="Y2" s="117">
+      <c r="Y2" s="100">
         <v>17</v>
       </c>
-      <c r="Z2" s="117" t="s">
+      <c r="Z2" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="119"/>
+      <c r="AA2" s="115"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="116"/>
-      <c r="B3" s="118"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="120"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="116"/>
     </row>
     <row r="4" spans="1:27" ht="20.25" customHeight="1">
       <c r="A4" s="17" t="s">
@@ -2937,542 +2938,542 @@
       <c r="AA9" s="24"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="138" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="140" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114" t="s">
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="123"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="126"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="103"/>
+      <c r="A11" s="139"/>
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="99"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="127"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="136" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="112" t="s">
+      <c r="E12" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="126" t="s">
+      <c r="F12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="126" t="s">
+      <c r="H12" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="126" t="s">
+      <c r="I12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="126" t="s">
+      <c r="J12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="126" t="s">
+      <c r="K12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="126" t="s">
+      <c r="L12" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="126" t="s">
+      <c r="M12" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="126" t="s">
+      <c r="N12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="126" t="s">
+      <c r="O12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="126" t="s">
+      <c r="P12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="126" t="s">
+      <c r="Q12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="126" t="s">
+      <c r="R12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="126" t="s">
+      <c r="S12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="T12" s="126" t="s">
+      <c r="T12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="126" t="s">
+      <c r="U12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="126" t="s">
+      <c r="V12" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="W12" s="126"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="124"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="117"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="102"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="127"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="125"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="128"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="102"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="110" t="s">
+      <c r="H14" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="110" t="s">
+      <c r="J14" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="110" t="s">
+      <c r="K14" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="110" t="s">
+      <c r="L14" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="110" t="s">
+      <c r="M14" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="110" t="s">
+      <c r="N14" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="110" t="s">
+      <c r="O14" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="110" t="s">
+      <c r="P14" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="110" t="s">
+      <c r="Q14" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="110" t="s">
+      <c r="R14" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="110" t="s">
+      <c r="S14" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="110" t="s">
+      <c r="T14" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110" t="s">
+      <c r="U14" s="104"/>
+      <c r="V14" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="110" t="s">
+      <c r="W14" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="X14" s="110" t="s">
+      <c r="X14" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="Y14" s="110" t="s">
+      <c r="Y14" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="98"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="129"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="103"/>
+      <c r="A15" s="139"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="99"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="127"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="136" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="112" t="s">
+      <c r="E16" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="126" t="s">
+      <c r="F16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="126" t="s">
+      <c r="G16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="126" t="s">
+      <c r="I16" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="126" t="s">
+      <c r="J16" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="126" t="s">
+      <c r="K16" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="126" t="s">
+      <c r="L16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="126" t="s">
+      <c r="M16" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="126" t="s">
+      <c r="N16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="126" t="s">
+      <c r="O16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="126"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126" t="s">
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="W16" s="126" t="s">
+      <c r="W16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="126"/>
-      <c r="AA16" s="124"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="117"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="102"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="125"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="128"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="102"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110" t="s">
+      <c r="E18" s="123"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="110" t="s">
+      <c r="J18" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="110" t="s">
+      <c r="K18" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110" t="s">
+      <c r="L18" s="104"/>
+      <c r="M18" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110" t="s">
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="110" t="s">
+      <c r="Q18" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110" t="s">
+      <c r="R18" s="104"/>
+      <c r="S18" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="T18" s="110" t="s">
+      <c r="T18" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110" t="s">
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="X18" s="110" t="s">
+      <c r="X18" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="Y18" s="110" t="s">
+      <c r="Y18" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="98"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="129"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="103"/>
+      <c r="A19" s="139"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="111"/>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="99"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="127"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="136" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="112" t="s">
+      <c r="E20" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="126"/>
-      <c r="S20" s="126"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="126" t="s">
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="W20" s="126"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="126"/>
-      <c r="Z20" s="126"/>
-      <c r="AA20" s="124"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="117"/>
     </row>
     <row r="21" spans="1:27" ht="14.25" thickBot="1">
-      <c r="A21" s="101"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
-      <c r="U21" s="129"/>
-      <c r="V21" s="129"/>
-      <c r="W21" s="129"/>
-      <c r="X21" s="129"/>
-      <c r="Y21" s="129"/>
-      <c r="Z21" s="129"/>
-      <c r="AA21" s="130"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="118"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="109" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="96"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="8" t="s">
         <v>44</v>
       </c>
@@ -3520,10 +3521,10 @@
       <c r="AA22" s="10"/>
     </row>
     <row r="23" spans="1:27" ht="14.25" thickBot="1">
-      <c r="A23" s="132"/>
+      <c r="A23" s="110"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="114"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -3550,6 +3551,165 @@
     </row>
   </sheetData>
   <mergeCells count="183">
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
@@ -3574,165 +3734,6 @@
     <mergeCell ref="Z10:Z11"/>
     <mergeCell ref="T20:T21"/>
     <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="U10:U11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3747,7 +3748,7 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -3772,79 +3773,79 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickBot="1">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="90" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="115">
+      <c r="E4" s="119">
         <v>1</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="100">
         <v>2</v>
       </c>
-      <c r="G4" s="117">
+      <c r="G4" s="100">
         <v>3</v>
       </c>
-      <c r="H4" s="117">
+      <c r="H4" s="100">
         <v>4</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="100">
         <v>5</v>
       </c>
-      <c r="J4" s="117">
+      <c r="J4" s="100">
         <v>6</v>
       </c>
-      <c r="K4" s="117">
+      <c r="K4" s="100">
         <v>7</v>
       </c>
-      <c r="L4" s="117">
+      <c r="L4" s="100">
         <v>8</v>
       </c>
-      <c r="M4" s="117">
+      <c r="M4" s="100">
         <v>9</v>
       </c>
-      <c r="N4" s="117">
+      <c r="N4" s="100">
         <v>10</v>
       </c>
-      <c r="O4" s="117">
+      <c r="O4" s="100">
         <v>11</v>
       </c>
-      <c r="P4" s="117">
+      <c r="P4" s="100">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="116"/>
-      <c r="B5" s="118"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
     </row>
     <row r="6" spans="1:16" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
@@ -3936,61 +3937,61 @@
     </row>
     <row r="8" spans="1:16" ht="19.5" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="141" t="s">
+      <c r="C8" s="150"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="149" t="s">
+      <c r="F8" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="149" t="s">
+      <c r="G8" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="149" t="s">
+      <c r="H8" s="145" t="s">
         <v>153</v>
       </c>
       <c r="I8" s="69"/>
-      <c r="J8" s="158" t="s">
+      <c r="J8" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="K8" s="149" t="s">
+      <c r="K8" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="L8" s="149" t="s">
+      <c r="L8" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="M8" s="158" t="s">
+      <c r="M8" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="N8" s="158" t="s">
+      <c r="N8" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="O8" s="158" t="s">
+      <c r="O8" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="P8" s="158"/>
+      <c r="P8" s="143"/>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
       <c r="I9" s="70"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
     </row>
     <row r="10" spans="1:16" ht="20.25" customHeight="1" thickBot="1">
       <c r="A10" s="25"/>
@@ -4021,355 +4022,355 @@
       <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="168" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="169" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="121"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114" t="s">
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="K11" s="126" t="s">
+      <c r="K11" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="126" t="s">
+      <c r="L11" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="M11" s="126" t="s">
+      <c r="M11" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="N11" s="126" t="s">
+      <c r="N11" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="O11" s="126" t="s">
+      <c r="O11" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="126"/>
+      <c r="P11" s="102"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="136"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
     </row>
     <row r="13" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="156" t="s">
         <v>113</v>
       </c>
       <c r="B13" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="156" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="140" t="s">
+      <c r="D13" s="164" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="112"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126" t="s">
+      <c r="E13" s="124"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="126" t="s">
+      <c r="K13" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="126" t="s">
+      <c r="L13" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="126" t="s">
+      <c r="M13" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="N13" s="126" t="s">
+      <c r="N13" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="O13" s="126" t="s">
+      <c r="O13" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="126"/>
+      <c r="P13" s="102"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="136"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
     </row>
     <row r="15" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="156" t="s">
         <v>117</v>
       </c>
       <c r="B15" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="140" t="s">
+      <c r="D15" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="112"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="126" t="s">
+      <c r="E15" s="124"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="K15" s="126" t="s">
+      <c r="K15" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="126" t="s">
+      <c r="L15" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="M15" s="126" t="s">
+      <c r="M15" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="N15" s="126" t="s">
+      <c r="N15" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="O15" s="126" t="s">
+      <c r="O15" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="126"/>
+      <c r="P15" s="102"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="136"/>
+      <c r="A16" s="162"/>
       <c r="B16" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
     </row>
     <row r="17" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A17" s="139" t="s">
+      <c r="A17" s="156" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="164" t="s">
         <v>122</v>
       </c>
       <c r="E17" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="128" t="s">
+      <c r="F17" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="128" t="s">
+      <c r="G17" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="128" t="s">
+      <c r="H17" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="126" t="s">
+      <c r="I17" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="128" t="s">
+      <c r="J17" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128" t="s">
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="N17" s="128" t="s">
+      <c r="N17" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="O17" s="128" t="s">
+      <c r="O17" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="P17" s="128" t="s">
+      <c r="P17" s="108" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="136"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
     </row>
     <row r="19" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="156" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="C19" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="155" t="s">
+      <c r="D19" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126" t="s">
+      <c r="F19" s="102"/>
+      <c r="G19" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="102" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="71"/>
-      <c r="J19" s="126" t="s">
+      <c r="J19" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126" t="s">
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="O19" s="126" t="s">
+      <c r="O19" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="126"/>
+      <c r="P19" s="102"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="136"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
       <c r="I20" s="72"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
     </row>
     <row r="21" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="156" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="153" t="s">
+      <c r="C21" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="155" t="s">
+      <c r="D21" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="112" t="s">
+      <c r="E21" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
       <c r="I21" s="71"/>
-      <c r="J21" s="126" t="s">
+      <c r="J21" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="126"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="126"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
     </row>
     <row r="22" spans="1:16" ht="14.25" thickBot="1">
-      <c r="A22" s="152"/>
+      <c r="A22" s="157"/>
       <c r="B22" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="154"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
       <c r="I22" s="73"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="109" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="45" t="s">
@@ -4413,49 +4414,49 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="151"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="52" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="173" t="s">
+      <c r="G24" s="94" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175" t="s">
+      <c r="I24" s="95"/>
+      <c r="J24" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="175" t="s">
+      <c r="K24" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="175" t="s">
+      <c r="L24" s="96" t="s">
         <v>45</v>
       </c>
       <c r="M24" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="173" t="s">
+      <c r="N24" s="94" t="s">
         <v>45</v>
       </c>
       <c r="O24" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="P24" s="172" t="s">
+      <c r="P24" s="93" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="151"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="41" t="s">
         <v>73</v>
       </c>
@@ -4485,7 +4486,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="14.25" thickBot="1">
-      <c r="A26" s="132"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="36" t="s">
         <v>77</v>
       </c>
@@ -4515,22 +4516,22 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="178"/>
-      <c r="O27" s="178"/>
-      <c r="P27" s="178"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
     </row>
     <row r="28" spans="1:16" s="56" customFormat="1" ht="10.5">
       <c r="E28" s="56" t="s">
@@ -4600,75 +4601,30 @@
     <row r="42" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B8:C9"/>
@@ -4693,30 +4649,75 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="P15:P16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4731,7 +4732,7 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -4756,39 +4757,39 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="90" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="100" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="115">
+      <c r="E4" s="119">
         <v>1</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="100">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="116"/>
-      <c r="B5" s="118"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="118"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="101"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="40" t="s">
@@ -4810,72 +4811,72 @@
       <c r="A7" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="177" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="161"/>
+      <c r="C7" s="178"/>
       <c r="D7" s="28"/>
       <c r="E7" s="76"/>
       <c r="F7" s="77"/>
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="156" t="s">
         <v>135</v>
       </c>
       <c r="B8" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="163" t="s">
+      <c r="D8" s="176" t="s">
         <v>138</v>
       </c>
       <c r="E8" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="128"/>
+      <c r="F8" s="108"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="136"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="111"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="105"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="156" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="160" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="112" t="s">
+      <c r="E10" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="126"/>
+      <c r="F10" s="102"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="136"/>
+      <c r="A11" s="162"/>
       <c r="B11" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="164"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="127"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="107"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="155" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="63" t="s">
@@ -4889,7 +4890,7 @@
       <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A13" s="132"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="62" t="s">
         <v>77</v>
       </c>
@@ -4909,51 +4910,51 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="57" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="90" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="100" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="115">
+      <c r="E17" s="119">
         <v>1</v>
       </c>
-      <c r="F17" s="117">
+      <c r="F17" s="100">
         <v>2</v>
       </c>
-      <c r="G17" s="117">
+      <c r="G17" s="100">
         <v>3</v>
       </c>
-      <c r="H17" s="117">
+      <c r="H17" s="100">
         <v>4</v>
       </c>
-      <c r="I17" s="117">
+      <c r="I17" s="100">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="116"/>
-      <c r="B18" s="118"/>
+      <c r="A18" s="120"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="40" t="s">
@@ -5001,10 +5002,10 @@
     </row>
     <row r="21" spans="1:9" ht="14.25" thickBot="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="166"/>
+      <c r="C21" s="171"/>
       <c r="D21" s="24"/>
       <c r="E21" s="78" t="s">
         <v>38</v>
@@ -5019,157 +5020,157 @@
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="135" t="s">
+      <c r="A22" s="168" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="C22" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="167" t="s">
+      <c r="D22" s="173" t="s">
         <v>92</v>
       </c>
       <c r="E22" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128" t="s">
+      <c r="F22" s="108"/>
+      <c r="G22" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="128" t="s">
+      <c r="H22" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="128" t="s">
+      <c r="I22" s="108" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="136"/>
+      <c r="A23" s="162"/>
       <c r="B23" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="139" t="s">
+      <c r="A24" s="156" t="s">
         <v>94</v>
       </c>
       <c r="B24" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="156" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="140" t="s">
+      <c r="D24" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="112" t="s">
+      <c r="E24" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
+      <c r="F24" s="102"/>
+      <c r="G24" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="126" t="s">
+      <c r="H24" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="126"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="136"/>
+      <c r="A25" s="162"/>
       <c r="B25" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="139" t="s">
+      <c r="A26" s="156" t="s">
         <v>98</v>
       </c>
       <c r="B26" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="140" t="s">
+      <c r="D26" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="112" t="s">
+      <c r="E26" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126" t="s">
+      <c r="F26" s="102"/>
+      <c r="G26" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H26" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="126"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="136"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="136"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="156" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="153" t="s">
+      <c r="C28" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="155" t="s">
+      <c r="D28" s="160" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
     </row>
     <row r="29" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A29" s="152"/>
+      <c r="A29" s="157"/>
       <c r="B29" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="151" t="s">
+      <c r="C29" s="159"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+    </row>
+    <row r="30" spans="1:9" ht="409.6">
+      <c r="A30" s="155" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="83" t="s">
@@ -5189,8 +5190,8 @@
       </c>
       <c r="I30" s="53"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="151"/>
+    <row r="31" spans="1:9" ht="409.6">
+      <c r="A31" s="155"/>
       <c r="B31" s="41" t="s">
         <v>77</v>
       </c>
@@ -5209,7 +5210,7 @@
       <c r="I31" s="53"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A32" s="132"/>
+      <c r="A32" s="110"/>
       <c r="B32" s="82" t="s">
         <v>164</v>
       </c>
@@ -5225,7 +5226,7 @@
       </c>
       <c r="I32" s="81"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" ht="409.6">
       <c r="A34" s="57"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
@@ -5246,7 +5247,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" ht="409.6">
       <c r="A35" s="57"/>
       <c r="B35" s="57"/>
       <c r="C35" s="57"/>
@@ -5263,6 +5264,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
@@ -5278,50 +5322,7 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:H27"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5358,46 +5359,46 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="100" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="115">
+      <c r="E2" s="119">
         <v>1</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="100">
         <v>2</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="100">
         <v>3</v>
       </c>
-      <c r="H2" s="117">
+      <c r="H2" s="100">
         <v>4</v>
       </c>
-      <c r="I2" s="117">
+      <c r="I2" s="100">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="116"/>
-      <c r="B3" s="118"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1">
       <c r="A4" s="40" t="s">
@@ -5445,10 +5446,10 @@
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="166"/>
+      <c r="C6" s="171"/>
       <c r="D6" s="24"/>
       <c r="E6" s="78" t="s">
         <v>38</v>
@@ -5463,157 +5464,157 @@
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="168" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="173" t="s">
         <v>92</v>
       </c>
       <c r="E7" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128" t="s">
+      <c r="F7" s="108"/>
+      <c r="G7" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="128" t="s">
+      <c r="H7" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="128" t="s">
+      <c r="I7" s="108" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="136"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="156" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="156" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="112" t="s">
+      <c r="E9" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126" t="s">
+      <c r="F9" s="102"/>
+      <c r="G9" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="126" t="s">
+      <c r="H9" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="126"/>
+      <c r="I9" s="102"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="136"/>
+      <c r="A10" s="162"/>
       <c r="B10" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="136"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="156" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="112" t="s">
+      <c r="E11" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126" t="s">
+      <c r="F11" s="102"/>
+      <c r="G11" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="126" t="s">
+      <c r="H11" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="126"/>
+      <c r="I11" s="102"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="136"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
     </row>
     <row r="13" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="156" t="s">
         <v>102</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="153" t="s">
+      <c r="C13" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="160" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A14" s="152"/>
+      <c r="A14" s="157"/>
       <c r="B14" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="155" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="37" t="s">
@@ -5634,7 +5635,7 @@
       <c r="I15" s="53"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="151"/>
+      <c r="A16" s="155"/>
       <c r="B16" s="41" t="s">
         <v>77</v>
       </c>
@@ -5653,7 +5654,7 @@
       <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A17" s="132"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="36" t="s">
         <v>155</v>
       </c>
@@ -5696,11 +5697,28 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A13:A14"/>
@@ -5716,28 +5734,11 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
